--- a/Docs/Segundo Diseño/PlantillaRelacional.xlsx
+++ b/Docs/Segundo Diseño/PlantillaRelacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\Uniandes\QuintoSemestre\SisTrans\C2Implementacion\Docs\Segundo Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2100A119-053F-4C29-AA19-A6C8C2F8346E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B390BE7-F9D2-4337-A38F-49B4590F7F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/Docs/Segundo Diseño/PlantillaRelacional.xlsx
+++ b/Docs/Segundo Diseño/PlantillaRelacional.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\maria\Documents\Uniandes\QuintoSemestre\SisTrans\C2Implementacion\Docs\Segundo Diseño\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B390BE7-F9D2-4337-A38F-49B4590F7F79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04E3B0C3-9906-4605-A5A4-B2B3346E0D61}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -84,7 +84,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="220" uniqueCount="148">
   <si>
     <t>Nombre</t>
   </si>
@@ -729,6 +729,15 @@
   <si>
     <t>CK in (Cajero, Gerente Oficina, Gerente general), NN</t>
   </si>
+  <si>
+    <t>NumeroPA</t>
+  </si>
+  <si>
+    <t>IDGerente</t>
+  </si>
+  <si>
+    <t>NN, FK(Empleado.IDEmpleado)</t>
+  </si>
 </sst>
 </file>
 
@@ -978,7 +987,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1086,18 +1095,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1420,8 +1417,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAEE7B07-A6BA-4D45-BE7B-9B06C041E04A}">
   <dimension ref="A7:N69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G46" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K58" sqref="K58"/>
+    <sheetView tabSelected="1" topLeftCell="D24" zoomScale="89" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1797,7 +1794,7 @@
       <c r="A33" s="10" t="s">
         <v>84</v>
       </c>
-      <c r="B33" s="43" t="s">
+      <c r="B33" s="39" t="s">
         <v>91</v>
       </c>
       <c r="E33" s="37" t="s">
@@ -1808,7 +1805,7 @@
       <c r="A34" s="11" t="s">
         <v>140</v>
       </c>
-      <c r="B34" s="44" t="s">
+      <c r="B34" s="40" t="s">
         <v>143</v>
       </c>
       <c r="E34" s="2" t="s">
@@ -1817,13 +1814,13 @@
       <c r="F34" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="G34" s="40"/>
+      <c r="G34" s="32"/>
     </row>
     <row r="35" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="A35" s="12">
         <v>2</v>
       </c>
-      <c r="B35" s="45" t="s">
+      <c r="B35" s="41" t="s">
         <v>92</v>
       </c>
       <c r="E35" s="3" t="s">
@@ -1832,7 +1829,7 @@
       <c r="F35" s="11" t="s">
         <v>143</v>
       </c>
-      <c r="G35" s="41"/>
+      <c r="G35" s="33"/>
     </row>
     <row r="36" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E36" s="4">
@@ -1841,7 +1838,7 @@
       <c r="F36" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="G36" s="42"/>
+      <c r="G36" s="34"/>
     </row>
     <row r="37" spans="1:10" ht="16.5" x14ac:dyDescent="0.25">
       <c r="E37" s="4">
@@ -1850,7 +1847,7 @@
       <c r="F37" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="G37" s="42"/>
+      <c r="G37" s="34"/>
     </row>
     <row r="40" spans="1:10" ht="17.25" x14ac:dyDescent="0.3">
       <c r="A40" s="37" t="s">
@@ -1875,8 +1872,12 @@
       <c r="C41" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="D41" s="32"/>
-      <c r="E41" s="32"/>
+      <c r="D41" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>146</v>
+      </c>
       <c r="G41" s="2" t="s">
         <v>19</v>
       </c>
@@ -1900,8 +1901,12 @@
       <c r="C42" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D42" s="33"/>
-      <c r="E42" s="33"/>
+      <c r="D42" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>147</v>
+      </c>
       <c r="G42" s="24" t="s">
         <v>95</v>
       </c>
@@ -1925,7 +1930,12 @@
       <c r="C43" s="12" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="34"/>
+      <c r="D43" s="12">
+        <v>5</v>
+      </c>
+      <c r="E43" s="12">
+        <v>1</v>
+      </c>
       <c r="G43" s="20">
         <v>1</v>
       </c>
@@ -1949,7 +1959,12 @@
       <c r="C44" s="12" t="s">
         <v>98</v>
       </c>
-      <c r="D44" s="34"/>
+      <c r="D44" s="12">
+        <v>3</v>
+      </c>
+      <c r="E44" s="12">
+        <v>3</v>
+      </c>
       <c r="G44" s="20">
         <v>2</v>
       </c>
@@ -2092,7 +2107,7 @@
       <c r="J55" s="10" t="s">
         <v>36</v>
       </c>
-      <c r="K55" s="39" t="s">
+      <c r="K55" s="14" t="s">
         <v>114</v>
       </c>
       <c r="L55" s="22" t="s">
@@ -30770,18 +30785,18 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -30803,18 +30818,18 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4393CBCD-EAFD-4115-B9D8-C80ED598E2BB}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7FED8D7F-5194-4FE1-9F26-B5D597C3E680}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4393CBCD-EAFD-4115-B9D8-C80ED598E2BB}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>